--- a/results/rmse-freq-c2_1-k10-n1_5/rmse-freq-c2_1-k10-n1_5.xlsx
+++ b/results/rmse-freq-c2_1-k10-n1_5/rmse-freq-c2_1-k10-n1_5.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Weights" sheetId="6" r:id="rId2"/>
     <sheet name="Diameter" sheetId="5" r:id="rId3"/>
     <sheet name="WeightsDiameter" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,12 +23,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>Total</t>
   </si>
   <si>
     <t>StdDev</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>RMSE/Y</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Feature0</t>
   </si>
 </sst>
 </file>
@@ -79,8 +95,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -89,11 +125,31 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,11 +541,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138333592"/>
-        <c:axId val="-2138414712"/>
+        <c:axId val="2072006616"/>
+        <c:axId val="2117199400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138333592"/>
+        <c:axId val="2072006616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138414712"/>
+        <c:crossAx val="2117199400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -526,7 +582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138414712"/>
+        <c:axId val="2117199400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -557,7 +613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138333592"/>
+        <c:crossAx val="2072006616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -958,11 +1014,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2122081272"/>
-        <c:axId val="2122086664"/>
+        <c:axId val="2133273560"/>
+        <c:axId val="2133279000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122081272"/>
+        <c:axId val="2133273560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122086664"/>
+        <c:crossAx val="2133279000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +1055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122086664"/>
+        <c:axId val="2133279000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -1030,7 +1086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122081272"/>
+        <c:crossAx val="2133273560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1431,11 +1487,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2122124792"/>
-        <c:axId val="2122130184"/>
+        <c:axId val="2108786776"/>
+        <c:axId val="2108762312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122124792"/>
+        <c:axId val="2108786776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122130184"/>
+        <c:crossAx val="2108762312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1472,7 +1528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122130184"/>
+        <c:axId val="2108762312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -1503,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122124792"/>
+        <c:crossAx val="2108786776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1904,11 +1960,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2121841592"/>
-        <c:axId val="2121846984"/>
+        <c:axId val="2128761288"/>
+        <c:axId val="2128766680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121841592"/>
+        <c:axId val="2128761288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121846984"/>
+        <c:crossAx val="2128766680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +2001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121846984"/>
+        <c:axId val="2128766680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -1976,7 +2032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121841592"/>
+        <c:crossAx val="2128761288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1997,16 +2053,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2032,15 +2088,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2069,16 +2125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2106,15 +2162,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2461,437 +2517,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C51" si="0">A2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>49.199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
         <v>206</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>164.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <v>266</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>239.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>431</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
         <v>663</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>729.30000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
         <v>804</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>964.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1.3</v>
       </c>
       <c r="B14">
         <v>743</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>965.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1.4</v>
       </c>
       <c r="B15">
         <v>696</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>974.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>760</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.6</v>
       </c>
       <c r="B17">
         <v>724</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1158.4000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.7</v>
       </c>
       <c r="B18">
         <v>684</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1162.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>639</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1150.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.9</v>
       </c>
       <c r="B20">
         <v>542</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1029.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>493</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2.1</v>
       </c>
       <c r="B22">
         <v>461</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>968.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
         <v>385</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>847.00000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
         <v>327</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>752.09999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2.4</v>
       </c>
       <c r="B25">
         <v>229</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>549.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>367.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.6</v>
       </c>
       <c r="B27">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>371.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2.7</v>
       </c>
       <c r="B28">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>218.70000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2.8</v>
       </c>
       <c r="B29">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2.9</v>
       </c>
       <c r="B30">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>104.39999999999999</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B51)</f>
+        <v>9958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>3.1</v>
       </c>
       <c r="B32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.62019083920700002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3.3</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>23.099999999999998</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>SUM(C1:C51)/SUM(B1:B51)</f>
+        <v>1.6109258887326774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3.4</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f>F34/AVERAGE(Data!B2:B16)</f>
+        <v>1.7210746674494418E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3.6</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>3.7</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3.8</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3.9</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4.2</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4.3</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4.7</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.8</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>SUM(B1:B51)</f>
-        <v>9958</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.62019083920700002</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2908,437 +3178,651 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C51" si="0">A2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
         <v>174</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>179.20000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>455</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
         <v>634</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>697.40000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
         <v>702</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>842.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1.3</v>
       </c>
       <c r="B14">
         <v>727</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>945.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1.4</v>
       </c>
       <c r="B15">
         <v>739</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1034.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>770</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.6</v>
       </c>
       <c r="B17">
         <v>760</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.7</v>
       </c>
       <c r="B18">
         <v>700</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>638</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1148.4000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.9</v>
       </c>
       <c r="B20">
         <v>612</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1162.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>527</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2.1</v>
       </c>
       <c r="B22">
         <v>472</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>991.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
         <v>401</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>882.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
         <v>298</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>685.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2.4</v>
       </c>
       <c r="B25">
         <v>209</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>501.59999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>168</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.6</v>
       </c>
       <c r="B27">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>296.40000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2.7</v>
       </c>
       <c r="B28">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>164.70000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2.8</v>
       </c>
       <c r="B29">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>148.39999999999998</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>SUM(B1:B51)</f>
+        <v>9987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2.9</v>
       </c>
       <c r="B30">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.53306345853399995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>3.1</v>
       </c>
       <c r="B32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f>SUM(C1:C51)/SUM(B1:B51)</f>
+        <v>1.60135175728447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3.3</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3.4</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f>F33/AVERAGE(Data!B1:B15)</f>
+        <v>1.8597200001644613E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3.6</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>3.7</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3.8</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3.9</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4.2</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4.3</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>12.899999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4.7</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.8</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>SUM(B1:B51)</f>
-        <v>9987</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.53306345853399995</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3355,437 +3839,651 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C51" si="0">A2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
         <v>229</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>183.20000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <v>274</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>246.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>478</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
         <v>671</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>738.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
         <v>731</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>877.19999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1.3</v>
       </c>
       <c r="B14">
         <v>735</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>955.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1.4</v>
       </c>
       <c r="B15">
         <v>785</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>801</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1201.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.6</v>
       </c>
       <c r="B17">
         <v>766</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1225.6000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.7</v>
       </c>
       <c r="B18">
         <v>693</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1178.0999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>641</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1153.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.9</v>
       </c>
       <c r="B20">
         <v>558</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1060.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>525</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2.1</v>
       </c>
       <c r="B22">
         <v>480</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
         <v>395</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>869.00000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
         <v>288</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>662.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2.4</v>
       </c>
       <c r="B25">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>439.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.6</v>
       </c>
       <c r="B27">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>257.40000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2.7</v>
       </c>
       <c r="B28">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>145.80000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2.8</v>
       </c>
       <c r="B29">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2.9</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>75.399999999999991</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B51)</f>
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>3.1</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.51287751323700004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3.3</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>23.099999999999998</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>SUM(C1:C51)/SUM(B1:B51)</f>
+        <v>1.58015015015015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3.4</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f>F34/AVERAGE(Data!B2:B16)</f>
+        <v>1.6881946048612716E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3.6</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>3.7</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3.8</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3.9</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4.2</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4.3</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4.7</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.8</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>SUM(B1:B51)</f>
-        <v>9990</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.51287751323700004</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3802,437 +4500,651 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C51" si="0">A2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>43.199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
         <v>242</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>193.60000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <v>294</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>264.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>476</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
         <v>662</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>728.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
         <v>780</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1.3</v>
       </c>
       <c r="B14">
         <v>755</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>981.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1.4</v>
       </c>
       <c r="B15">
         <v>762</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1066.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>778</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.6</v>
       </c>
       <c r="B17">
         <v>729</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1166.4000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.7</v>
       </c>
       <c r="B18">
         <v>707</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1201.8999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>661</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1189.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.9</v>
       </c>
       <c r="B20">
         <v>597</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1134.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>501</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2.1</v>
       </c>
       <c r="B22">
         <v>423</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>888.30000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
         <v>385</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>847.00000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
         <v>288</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>662.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2.4</v>
       </c>
       <c r="B25">
         <v>226</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>542.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.6</v>
       </c>
       <c r="B27">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>257.40000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2.7</v>
       </c>
       <c r="B28">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>143.10000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2.8</v>
       </c>
       <c r="B29">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2.9</v>
       </c>
       <c r="B30">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>55.1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B51)</f>
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>3.1</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>21.7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.49561788343300001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3.3</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>SUM(C1:C51)/SUM(B1:B51)</f>
+        <v>1.5777155431086214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3.4</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f>F34/AVERAGE(Data!B2:B16)</f>
+        <v>1.6855935289622023E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3.6</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>3.7</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3.8</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3.9</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4.2</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4.3</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4.7</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.8</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>SUM(B1:B51)</f>
-        <v>9998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.49561788343300001</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4245,4 +5157,200 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>165.5</v>
+      </c>
+      <c r="C2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>125.6</v>
+      </c>
+      <c r="C3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="C4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>47.8</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13.9</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>118</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>145.1</v>
+      </c>
+      <c r="C8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>153</v>
+      </c>
+      <c r="C9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>43.9</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>142.1</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>54.3</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>24.4</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>198.5</v>
+      </c>
+      <c r="C16">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>